--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H2">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.343201232341468</v>
+        <v>0.5253496666666667</v>
       </c>
       <c r="N2">
-        <v>0.343201232341468</v>
+        <v>1.576049</v>
       </c>
       <c r="O2">
-        <v>0.01249481302714778</v>
+        <v>0.01837235699974889</v>
       </c>
       <c r="P2">
-        <v>0.01249481302714778</v>
+        <v>0.01837235699974889</v>
       </c>
       <c r="Q2">
-        <v>8.768023242035611</v>
+        <v>14.20488007901478</v>
       </c>
       <c r="R2">
-        <v>8.768023242035611</v>
+        <v>127.843920711133</v>
       </c>
       <c r="S2">
-        <v>0.0008503885113597244</v>
+        <v>0.001303737032974999</v>
       </c>
       <c r="T2">
-        <v>0.0008503885113597244</v>
+        <v>0.001303737032974999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H3">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.65815648119568</v>
+        <v>2.717626000000001</v>
       </c>
       <c r="N3">
-        <v>2.65815648119568</v>
+        <v>8.152878000000001</v>
       </c>
       <c r="O3">
-        <v>0.09677461821114809</v>
+        <v>0.09503992908304168</v>
       </c>
       <c r="P3">
-        <v>0.09677461821114809</v>
+        <v>0.09503992908304168</v>
       </c>
       <c r="Q3">
-        <v>67.90994790165044</v>
+        <v>73.48163305128068</v>
       </c>
       <c r="R3">
-        <v>67.90994790165044</v>
+        <v>661.334697461526</v>
       </c>
       <c r="S3">
-        <v>0.006586414965888432</v>
+        <v>0.006744212250968813</v>
       </c>
       <c r="T3">
-        <v>0.006586414965888432</v>
+        <v>0.006744212250968815</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H4">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4661387264485</v>
+        <v>25.35159533333334</v>
       </c>
       <c r="N4">
-        <v>24.4661387264485</v>
+        <v>76.05478600000001</v>
       </c>
       <c r="O4">
-        <v>0.8907305687617042</v>
+        <v>0.8865877139172095</v>
       </c>
       <c r="P4">
-        <v>0.8907305687617042</v>
+        <v>0.8865877139172095</v>
       </c>
       <c r="Q4">
-        <v>625.0550778411299</v>
+        <v>685.4793947175069</v>
       </c>
       <c r="R4">
-        <v>625.0550778411299</v>
+        <v>6169.314552457562</v>
       </c>
       <c r="S4">
-        <v>0.06062251918024698</v>
+        <v>0.06291393290639347</v>
       </c>
       <c r="T4">
-        <v>0.06062251918024698</v>
+        <v>0.06291393290639348</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H5">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.343201232341468</v>
+        <v>0.5253496666666667</v>
       </c>
       <c r="N5">
-        <v>0.343201232341468</v>
+        <v>1.576049</v>
       </c>
       <c r="O5">
-        <v>0.01249481302714778</v>
+        <v>0.01837235699974889</v>
       </c>
       <c r="P5">
-        <v>0.01249481302714778</v>
+        <v>0.01837235699974889</v>
       </c>
       <c r="Q5">
-        <v>117.2022531176769</v>
+        <v>181.5432870887904</v>
       </c>
       <c r="R5">
-        <v>117.2022531176769</v>
+        <v>1633.889583799113</v>
       </c>
       <c r="S5">
-        <v>0.01136715161507804</v>
+        <v>0.01666221081410805</v>
       </c>
       <c r="T5">
-        <v>0.01136715161507804</v>
+        <v>0.01666221081410805</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H6">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.65815648119568</v>
+        <v>2.717626000000001</v>
       </c>
       <c r="N6">
-        <v>2.65815648119568</v>
+        <v>8.152878000000001</v>
       </c>
       <c r="O6">
-        <v>0.09677461821114809</v>
+        <v>0.09503992908304168</v>
       </c>
       <c r="P6">
-        <v>0.09677461821114809</v>
+        <v>0.09503992908304168</v>
       </c>
       <c r="Q6">
-        <v>907.7529431057548</v>
+        <v>939.1207198214541</v>
       </c>
       <c r="R6">
-        <v>907.7529431057548</v>
+        <v>8452.086478393087</v>
       </c>
       <c r="S6">
-        <v>0.08804067378257711</v>
+        <v>0.08619336833924809</v>
       </c>
       <c r="T6">
-        <v>0.08804067378257711</v>
+        <v>0.08619336833924811</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H7">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.4661387264485</v>
+        <v>25.35159533333334</v>
       </c>
       <c r="N7">
-        <v>24.4661387264485</v>
+        <v>76.05478600000001</v>
       </c>
       <c r="O7">
-        <v>0.8907305687617042</v>
+        <v>0.8865877139172095</v>
       </c>
       <c r="P7">
-        <v>0.8907305687617042</v>
+        <v>0.8865877139172095</v>
       </c>
       <c r="Q7">
-        <v>8355.11738773831</v>
+        <v>8760.664071532365</v>
       </c>
       <c r="R7">
-        <v>8355.11738773831</v>
+        <v>78845.97664379128</v>
       </c>
       <c r="S7">
-        <v>0.8103418115421178</v>
+        <v>0.8040618519816792</v>
       </c>
       <c r="T7">
-        <v>0.8103418115421178</v>
+        <v>0.8040618519816793</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H8">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J8">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.343201232341468</v>
+        <v>0.5253496666666667</v>
       </c>
       <c r="N8">
-        <v>0.343201232341468</v>
+        <v>1.576049</v>
       </c>
       <c r="O8">
-        <v>0.01249481302714778</v>
+        <v>0.01837235699974889</v>
       </c>
       <c r="P8">
-        <v>0.01249481302714778</v>
+        <v>0.01837235699974889</v>
       </c>
       <c r="Q8">
-        <v>2.858852401386299</v>
+        <v>4.428035048953778</v>
       </c>
       <c r="R8">
-        <v>2.858852401386299</v>
+        <v>39.85231544058401</v>
       </c>
       <c r="S8">
-        <v>0.0002772729007100178</v>
+        <v>0.0004064091526658427</v>
       </c>
       <c r="T8">
-        <v>0.0002772729007100178</v>
+        <v>0.0004064091526658428</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H9">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J9">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.65815648119568</v>
+        <v>2.717626000000001</v>
       </c>
       <c r="N9">
-        <v>2.65815648119568</v>
+        <v>8.152878000000001</v>
       </c>
       <c r="O9">
-        <v>0.09677461821114809</v>
+        <v>0.09503992908304168</v>
       </c>
       <c r="P9">
-        <v>0.09677461821114809</v>
+        <v>0.09503992908304168</v>
       </c>
       <c r="Q9">
-        <v>22.1423361089972</v>
+        <v>22.90615934773868</v>
       </c>
       <c r="R9">
-        <v>22.1423361089972</v>
+        <v>206.1554341296481</v>
       </c>
       <c r="S9">
-        <v>0.002147529462682545</v>
+        <v>0.002102348492824773</v>
       </c>
       <c r="T9">
-        <v>0.002147529462682545</v>
+        <v>0.002102348492824774</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H10">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J10">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.4661387264485</v>
+        <v>25.35159533333334</v>
       </c>
       <c r="N10">
-        <v>24.4661387264485</v>
+        <v>76.05478600000001</v>
       </c>
       <c r="O10">
-        <v>0.8907305687617042</v>
+        <v>0.8865877139172095</v>
       </c>
       <c r="P10">
-        <v>0.8907305687617042</v>
+        <v>0.8865877139172095</v>
       </c>
       <c r="Q10">
-        <v>203.8019472528169</v>
+        <v>213.6819718477529</v>
       </c>
       <c r="R10">
-        <v>203.8019472528169</v>
+        <v>1923.137746629777</v>
       </c>
       <c r="S10">
-        <v>0.01976623803933937</v>
+        <v>0.01961192902913678</v>
       </c>
       <c r="T10">
-        <v>0.01976623803933937</v>
+        <v>0.01961192902913679</v>
       </c>
     </row>
   </sheetData>
